--- a/Task2/OutputGraph.xlsx
+++ b/Task2/OutputGraph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\AINT308-Coursework\Task2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackj\Git\AINT308-Coursework\Task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A1328-3E5E-42EF-9346-F9D6AB87FA6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEB3829-3698-47DD-9614-DEA6921644EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F15C8244-C628-4BE9-8DF4-F6BD003FBD27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F15C8244-C628-4BE9-8DF4-F6BD003FBD27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -172,9 +172,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Angle</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -8961,6 +8958,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8992,6 +9044,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> Deviation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (Radians)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9996,7 +10108,7 @@
   <dimension ref="A1:A2914"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
